--- a/data/576/DOS/M015021.xlsx
+++ b/data/576/DOS/M015021.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DOS" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,224 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
-  <si>
-    <t>Variables</t>
-  </si>
-  <si>
-    <t>1960</t>
-  </si>
-  <si>
-    <t>1961</t>
-  </si>
-  <si>
-    <t>1962</t>
-  </si>
-  <si>
-    <t>1963</t>
-  </si>
-  <si>
-    <t>1964</t>
-  </si>
-  <si>
-    <t>1965</t>
-  </si>
-  <si>
-    <t>1966</t>
-  </si>
-  <si>
-    <t>1967</t>
-  </si>
-  <si>
-    <t>1968</t>
-  </si>
-  <si>
-    <t>1969</t>
-  </si>
-  <si>
-    <t>1970</t>
-  </si>
-  <si>
-    <t>1971</t>
-  </si>
-  <si>
-    <t>1972</t>
-  </si>
-  <si>
-    <t>1973</t>
-  </si>
-  <si>
-    <t>1974</t>
-  </si>
-  <si>
-    <t>1975</t>
-  </si>
-  <si>
-    <t>1976</t>
-  </si>
-  <si>
-    <t>1977</t>
-  </si>
-  <si>
-    <t>1978</t>
-  </si>
-  <si>
-    <t>1979</t>
-  </si>
-  <si>
-    <t>1980</t>
-  </si>
-  <si>
-    <t>1981</t>
-  </si>
-  <si>
-    <t>1982</t>
-  </si>
-  <si>
-    <t>1983</t>
-  </si>
-  <si>
-    <t>1984</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
-    <t>1986</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>GDP At Current Market Prices</t>
-  </si>
-  <si>
-    <t>Private Consumption Expenditure</t>
-  </si>
-  <si>
-    <t>Government Consumption Expenditure</t>
-  </si>
-  <si>
-    <t>Gross Fixed Capital Formation</t>
-  </si>
-  <si>
-    <t>Changes In Inventories</t>
-  </si>
-  <si>
-    <t>Net Exports Of Goods And Services</t>
-  </si>
-  <si>
-    <t>Exports Of Goods And Services</t>
-  </si>
-  <si>
-    <t>Imports Of Goods And Services</t>
-  </si>
-  <si>
-    <t>Statistical Discrepancy</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -576,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ10"/>
+  <dimension ref="A1:BK10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,197 +366,328 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:62">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>61</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variables</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:62">
-      <c r="A2" s="1" t="s">
-        <v>62</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>GDP At Current Market Prices</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>2157.4</v>
@@ -945,24 +858,29 @@
         <v>423444.1</v>
       </c>
       <c r="BF2" t="n">
-        <v>440372.2</v>
+        <v>440467</v>
       </c>
       <c r="BG2" t="n">
-        <v>474115.1</v>
+        <v>473915.7</v>
       </c>
       <c r="BH2" t="n">
-        <v>507123.9</v>
+        <v>508495.1</v>
       </c>
       <c r="BI2" t="n">
-        <v>510737.8</v>
+        <v>512219.9</v>
       </c>
       <c r="BJ2" t="n">
-        <v>469095.9</v>
+        <v>476404.8</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>533351.9</v>
       </c>
     </row>
-    <row r="3" spans="1:62">
-      <c r="A3" s="1" t="s">
-        <v>63</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Private Consumption Expenditure</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>1929.3</v>
@@ -1133,24 +1051,29 @@
         <v>157343.7</v>
       </c>
       <c r="BF3" t="n">
-        <v>160687.3</v>
+        <v>160597.1</v>
       </c>
       <c r="BG3" t="n">
-        <v>166880.2</v>
+        <v>166873.9</v>
       </c>
       <c r="BH3" t="n">
-        <v>175131</v>
+        <v>175098.3</v>
       </c>
       <c r="BI3" t="n">
-        <v>182045.5</v>
+        <v>182010</v>
       </c>
       <c r="BJ3" t="n">
-        <v>154845.7</v>
+        <v>155396.1</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>165182.7</v>
       </c>
     </row>
-    <row r="4" spans="1:62">
-      <c r="A4" s="1" t="s">
-        <v>64</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Government Consumption Expenditure</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>162.4</v>
@@ -1321,24 +1244,29 @@
         <v>43152.8</v>
       </c>
       <c r="BF4" t="n">
-        <v>45278.7</v>
+        <v>45210.4</v>
       </c>
       <c r="BG4" t="n">
-        <v>48248.7</v>
+        <v>48307.5</v>
       </c>
       <c r="BH4" t="n">
-        <v>50712.7</v>
+        <v>50714.7</v>
       </c>
       <c r="BI4" t="n">
-        <v>52607.5</v>
+        <v>52639</v>
       </c>
       <c r="BJ4" t="n">
-        <v>58241.3</v>
+        <v>58721.7</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>61600.1</v>
       </c>
     </row>
-    <row r="5" spans="1:62">
-      <c r="A5" s="1" t="s">
-        <v>65</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Gross Fixed Capital Formation</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>204.9</v>
@@ -1509,24 +1437,29 @@
         <v>115271.1</v>
       </c>
       <c r="BF5" t="n">
-        <v>114670.3</v>
+        <v>114703.2</v>
       </c>
       <c r="BG5" t="n">
-        <v>119889</v>
+        <v>119813.3</v>
       </c>
       <c r="BH5" t="n">
-        <v>114820.4</v>
+        <v>114160</v>
       </c>
       <c r="BI5" t="n">
-        <v>117486.7</v>
+        <v>117430.2</v>
       </c>
       <c r="BJ5" t="n">
-        <v>100741.9</v>
+        <v>100145.9</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>123614.7</v>
       </c>
     </row>
-    <row r="6" spans="1:62">
-      <c r="A6" s="1" t="s">
-        <v>66</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Changes In Inventories</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>39.6</v>
@@ -1697,24 +1630,29 @@
         <v>-7914.5</v>
       </c>
       <c r="BF6" t="n">
-        <v>1921</v>
+        <v>1925.7</v>
       </c>
       <c r="BG6" t="n">
-        <v>9664.200000000001</v>
+        <v>9673.299999999999</v>
       </c>
       <c r="BH6" t="n">
-        <v>11894.2</v>
+        <v>11907.7</v>
       </c>
       <c r="BI6" t="n">
-        <v>8455.799999999999</v>
+        <v>8991.4</v>
       </c>
       <c r="BJ6" t="n">
-        <v>5364.3</v>
+        <v>6826.9</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>6263.3</v>
       </c>
     </row>
-    <row r="7" spans="1:62">
-      <c r="A7" s="1" t="s">
-        <v>67</v>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Net Exports Of Goods And Services</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>-294.6</v>
@@ -1885,24 +1823,29 @@
         <v>115591</v>
       </c>
       <c r="BF7" t="n">
-        <v>115248.3</v>
+        <v>115457.6</v>
       </c>
       <c r="BG7" t="n">
-        <v>125351.8</v>
+        <v>125153</v>
       </c>
       <c r="BH7" t="n">
-        <v>145952.3</v>
+        <v>146771.4</v>
       </c>
       <c r="BI7" t="n">
-        <v>144369.9</v>
+        <v>147216.2</v>
       </c>
       <c r="BJ7" t="n">
-        <v>149727.1</v>
+        <v>151047.4</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>167265.7</v>
       </c>
     </row>
-    <row r="8" spans="1:62">
-      <c r="A8" s="1" t="s">
-        <v>68</v>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Exports Of Goods And Services</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>3512.8</v>
@@ -2073,24 +2016,29 @@
         <v>755359.1</v>
       </c>
       <c r="BF8" t="n">
-        <v>725489</v>
+        <v>725765.2</v>
       </c>
       <c r="BG8" t="n">
-        <v>811159.8</v>
+        <v>812277.4</v>
       </c>
       <c r="BH8" t="n">
-        <v>897920.4</v>
+        <v>897962.4</v>
       </c>
       <c r="BI8" t="n">
-        <v>898348.3</v>
+        <v>897788.9</v>
       </c>
       <c r="BJ8" t="n">
-        <v>826738.7</v>
+        <v>865707.6</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>985823.6</v>
       </c>
     </row>
-    <row r="9" spans="1:62">
-      <c r="A9" s="1" t="s">
-        <v>69</v>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Imports Of Goods And Services</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>3807.4</v>
@@ -2261,24 +2209,29 @@
         <v>639768.1</v>
       </c>
       <c r="BF9" t="n">
-        <v>610240.7</v>
+        <v>610307.6</v>
       </c>
       <c r="BG9" t="n">
-        <v>685808</v>
+        <v>687124.4</v>
       </c>
       <c r="BH9" t="n">
-        <v>751968.1</v>
+        <v>751191</v>
       </c>
       <c r="BI9" t="n">
-        <v>753978.4</v>
+        <v>750572.7</v>
       </c>
       <c r="BJ9" t="n">
-        <v>677011.6</v>
+        <v>714660.2</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>818557.9</v>
       </c>
     </row>
-    <row r="10" spans="1:62">
-      <c r="A10" s="1" t="s">
-        <v>70</v>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Statistical Discrepancy</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>115.8</v>
@@ -2449,19 +2402,22 @@
         <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>2566.5</v>
+        <v>2573</v>
       </c>
       <c r="BG10" t="n">
-        <v>4081.3</v>
+        <v>4094.6</v>
       </c>
       <c r="BH10" t="n">
-        <v>8613.299999999999</v>
+        <v>9843</v>
       </c>
       <c r="BI10" t="n">
-        <v>5772.4</v>
+        <v>3933.1</v>
       </c>
       <c r="BJ10" t="n">
-        <v>175.5</v>
+        <v>4266.8</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>9425.299999999999</v>
       </c>
     </row>
   </sheetData>
